--- a/w网站公司运营/报价表/@橘米科技报价.xlsx
+++ b/w网站公司运营/报价表/@橘米科技报价.xlsx
@@ -11,6 +11,195 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+内部显示：响应式是指同一个页面在不同分辨率的设备上都能有比较合适的显示效果，是目前</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>web</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>页面设计和开发的主流方式，但本质是网页，并不是应用。
+而</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>webapp</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>是利用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>web</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术开发本地应用，多为移动设备访问，通过</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>webview</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>提供一个容器，里面的内容是用网页技术实现的。当然也有开放平台中通过</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>web</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术实现的网页应用，通过电脑访问的。</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>webapp</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>的界面通常设计的和本地应用非常接近，目的是减小本地应用容量、统一客户端更新、利用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>web</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术实现更加丰富的可视化效果等。两者都是目前非常常用的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>web</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术，也是未来较长一段时间内的技术趋势。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,14 +699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移动端(响应式)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端(webapp)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>﹢¥80000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -551,6 +732,14 @@
   </si>
   <si>
     <t>新闻录入数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端(webapp技术)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端(响应式技术)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +809,27 @@
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1104,19 +1314,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="9" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -1316,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>76</v>
@@ -1396,10 +1608,10 @@
     </row>
     <row r="14" spans="1:7" ht="28.5">
       <c r="A14" s="24" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
@@ -1522,25 +1734,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="44.25" customHeight="1">
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="54.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1910,7 +2122,7 @@
     <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="24"/>
       <c r="B38" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -2147,7 +2359,7 @@
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="25"/>
       <c r="B49" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>41</v>
@@ -2355,5 +2567,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/w网站公司运营/报价表/@橘米科技报价.xlsx
+++ b/w网站公司运营/报价表/@橘米科技报价.xlsx
@@ -11,195 +11,6 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-内部显示：响应式是指同一个页面在不同分辨率的设备上都能有比较合适的显示效果，是目前</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>web</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>页面设计和开发的主流方式，但本质是网页，并不是应用。
-而</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>webapp</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>是利用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>web</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技术开发本地应用，多为移动设备访问，通过</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>webview</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>提供一个容器，里面的内容是用网页技术实现的。当然也有开放平台中通过</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>web</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技术实现的网页应用，通过电脑访问的。</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>webapp</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的界面通常设计的和本地应用非常接近，目的是减小本地应用容量、统一客户端更新、利用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>web</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技术实现更加丰富的可视化效果等。两者都是目前非常常用的</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>web</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>技术，也是未来较长一段时间内的技术趋势。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,6 +510,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>移动端(响应式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端(webapp)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>﹢¥80000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,14 +551,6 @@
   </si>
   <si>
     <t>新闻录入数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端(webapp技术)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端(响应式技术)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,27 +620,6 @@
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1314,21 +1104,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
-    <col min="8" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="9" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1">
@@ -1528,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>76</v>
@@ -1608,10 +1396,10 @@
     </row>
     <row r="14" spans="1:7" ht="28.5">
       <c r="A14" s="24" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
@@ -1734,25 +1522,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="54.75" customHeight="1">
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="44.25" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -2122,7 +1910,7 @@
     <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="24"/>
       <c r="B38" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -2359,7 +2147,7 @@
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="25"/>
       <c r="B49" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>41</v>
@@ -2567,6 +2355,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>